--- a/nc_exam/exam_admin/upload/车号星级实作题库最新.xlsx
+++ b/nc_exam/exam_admin/upload/车号星级实作题库最新.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370"/>
+    <workbookView windowWidth="19770" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="货检车间实作题库" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -510,6 +509,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -527,7 +532,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>2</t>
@@ -570,6 +574,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>上行分票车号长根据</t>
     </r>
     <r>
@@ -577,7 +588,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>2</t>
@@ -597,7 +607,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>,</t>
@@ -636,6 +645,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>分票结束后，根据涉及股道的货票数量，车号，到站与现车</t>
     </r>
     <r>
@@ -643,7 +659,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>2.6</t>
@@ -701,6 +716,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>上行始发车号每天</t>
     </r>
     <r>
@@ -708,7 +730,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>18:00</t>
@@ -728,7 +749,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>21:00</t>
@@ -748,7 +768,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>0:00</t>
@@ -768,7 +787,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>3:00</t>
@@ -788,7 +806,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>6:00</t>
@@ -808,7 +825,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>9:00</t>
@@ -828,7 +844,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>12:00</t>
@@ -848,7 +863,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>15:00</t>
@@ -906,6 +920,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>上行到达场北外勤车号员每天</t>
     </r>
     <r>
@@ -913,7 +934,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>18:00</t>
@@ -933,7 +953,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>21:00</t>
@@ -953,7 +972,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>0:00</t>
@@ -973,7 +991,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>3:00</t>
@@ -993,7 +1010,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>6:00</t>
@@ -1013,7 +1029,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>9:00</t>
@@ -1033,7 +1048,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>12:00</t>
@@ -1053,7 +1067,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>15:00</t>
@@ -1101,6 +1114,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>装运“</t>
     </r>
     <r>
@@ -1108,7 +1128,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>140</t>
@@ -1128,7 +1147,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>15</t>
@@ -1148,7 +1166,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>20</t>
@@ -1168,7 +1185,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>140</t>
@@ -1189,6 +1205,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>标有</t>
     </r>
     <r>
@@ -1196,7 +1219,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>1</t>
@@ -1216,7 +1238,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>2</t>
@@ -1236,7 +1257,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>6</t>
@@ -1256,7 +1276,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>140</t>
@@ -1302,6 +1321,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>“</t>
     </r>
     <r>
@@ -1309,7 +1335,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>140</t>
@@ -1358,6 +1383,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
@@ -1375,7 +1406,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>301</t>
@@ -1412,6 +1442,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>气体类</t>
     </r>
     <r>
@@ -1419,7 +1456,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>6</t>
@@ -1439,7 +1475,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>1</t>
@@ -1468,7 +1503,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1495,6 +1529,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>经由山海关分界站列车第一技术站为山海关（</t>
     </r>
     <r>
@@ -1502,7 +1543,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>SHD</t>
@@ -1553,6 +1593,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>上行始发车号室分票车号长负责将本班车统</t>
     </r>
     <r>
@@ -1560,7 +1607,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>-23</t>
@@ -1578,6 +1624,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="0"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -1595,7 +1647,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>2</t>
@@ -1613,6 +1664,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>上行分票车号长根据</t>
     </r>
     <r>
@@ -1620,7 +1678,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>2</t>
@@ -1640,7 +1697,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>,</t>
@@ -1658,6 +1714,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>分票结束后，根据涉及股道的货票数量，车号，到站与现车</t>
     </r>
     <r>
@@ -1665,7 +1727,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>2.6</t>
@@ -1682,6 +1743,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>上行分票车号长接到上行调车区长口头变更</t>
     </r>
     <r>
@@ -1689,7 +1757,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>2</t>
@@ -1707,6 +1774,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>上行分票车号长接到上行调车区长</t>
     </r>
     <r>
@@ -1714,7 +1788,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>2</t>
@@ -1735,6 +1808,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>上行始发车号每天</t>
     </r>
     <r>
@@ -1742,7 +1821,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>18:00</t>
@@ -1761,7 +1839,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>21:00</t>
@@ -1780,7 +1857,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>0:00</t>
@@ -1799,7 +1875,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>3:00</t>
@@ -1818,7 +1893,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>6:00</t>
@@ -1837,7 +1911,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>9:00</t>
@@ -1856,7 +1929,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>12:00</t>
@@ -1875,7 +1947,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>15:00</t>
@@ -1895,6 +1966,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>上行到达场北外勤车号员每天</t>
     </r>
     <r>
@@ -1902,7 +1980,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>18:00</t>
@@ -1922,7 +1999,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>21:00</t>
@@ -1942,7 +2018,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>0:00</t>
@@ -1962,7 +2037,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>3:00</t>
@@ -1982,7 +2056,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>6:00</t>
@@ -2002,7 +2075,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>9:00</t>
@@ -2022,7 +2094,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>12:00</t>
@@ -2042,7 +2113,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>15:00</t>
@@ -2069,6 +2139,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>装运“</t>
     </r>
     <r>
@@ -2076,7 +2153,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>140</t>
@@ -2096,7 +2172,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>15</t>
@@ -2116,7 +2191,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>20</t>
@@ -2136,7 +2210,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>140</t>
@@ -2156,7 +2229,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>4</t>
@@ -2174,6 +2246,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>靠近“</t>
     </r>
     <r>
@@ -2181,7 +2260,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>140</t>
@@ -2199,6 +2277,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>禁止标有</t>
     </r>
     <r>
@@ -2206,7 +2291,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>3</t>
@@ -2226,7 +2310,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>4</t>
@@ -2246,7 +2329,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>5</t>
@@ -2266,7 +2348,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>7</t>
@@ -2286,7 +2367,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>8</t>
@@ -2306,7 +2386,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>140</t>
@@ -2324,6 +2403,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>标有</t>
     </r>
     <r>
@@ -2331,7 +2417,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>1</t>
@@ -2351,7 +2436,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>2</t>
@@ -2371,7 +2455,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>6</t>
@@ -2391,7 +2474,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>140</t>
@@ -2411,7 +2493,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>3</t>
@@ -2429,6 +2510,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>“</t>
     </r>
     <r>
@@ -2436,7 +2524,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>140</t>
@@ -2456,7 +2543,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>10</t>
@@ -2474,6 +2560,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>装载</t>
     </r>
     <r>
@@ -2481,7 +2574,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>301</t>
@@ -2501,7 +2593,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>W</t>
@@ -2519,6 +2610,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>各型长大货物车禁止溜放和通过驼峰，其中</t>
     </r>
     <r>
@@ -2526,7 +2624,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>DL1</t>
@@ -2547,6 +2644,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>客车编入货物列车回送时，客车编挂辆数不得超过</t>
     </r>
     <r>
@@ -2554,7 +2658,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>20</t>
@@ -2572,6 +2675,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>装有密接式车钩的客车原则上应附挂旅客列车回送。需附挂货物列车回送时，不得超过</t>
     </r>
     <r>
@@ -2579,7 +2689,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>10</t>
@@ -2599,7 +2708,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>5</t>
@@ -2617,6 +2725,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>客车不得与装用</t>
     </r>
     <r>
@@ -2624,7 +2739,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>17</t>
@@ -2644,7 +2758,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>16</t>
@@ -2664,7 +2777,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>70</t>
@@ -2682,6 +2794,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>气体类</t>
     </r>
     <r>
@@ -2689,7 +2807,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>6</t>
@@ -2708,7 +2825,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>1</t>
@@ -2727,7 +2843,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>3</t>
@@ -2746,7 +2861,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>10</t>
@@ -2766,6 +2880,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>轨道起重机重量在</t>
     </r>
     <r>
@@ -2773,7 +2894,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t xml:space="preserve"> 15t</t>
@@ -2793,7 +2913,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>50km/h</t>
@@ -2811,6 +2930,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>上行分票车号长在“运统一”记事栏内标记“</t>
     </r>
     <r>
@@ -2818,7 +2943,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t>D</t>
@@ -2837,7 +2961,6 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
         <charset val="0"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -2863,6 +2986,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使用计算机掌握现在车的作业区，班中每</t>
     </r>
     <r>
@@ -2879,7 +3009,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>-2</t>
@@ -2916,10 +3045,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -2939,7 +3068,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="仿宋_GB2312"/>
-      <family val="1"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2964,7 +3092,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -2978,6 +3105,50 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2996,14 +3167,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3025,43 +3204,6 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -3069,9 +3211,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3093,31 +3242,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3132,7 +3259,6 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
       <charset val="0"/>
     </font>
   </fonts>
@@ -3145,7 +3271,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3157,49 +3409,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="11"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3211,19 +3427,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3235,91 +3439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="36"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="52"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="46"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3376,48 +3502,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3450,11 +3534,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3477,8 +3574,37 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3490,10 +3616,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3502,133 +3628,133 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4078,8 +4204,8 @@
   <sheetPr/>
   <dimension ref="A1:I133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4554,7 +4680,7 @@
       </c>
       <c r="I17"/>
     </row>
-    <row r="18" ht="17.25" spans="1:9">
+    <row r="18" ht="15" spans="1:9">
       <c r="A18" s="4">
         <v>18</v>
       </c>
@@ -6713,20 +6839,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-</worksheet>
 </file>